--- a/public/otherObjects.xlsx
+++ b/public/otherObjects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almukhanomarov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almukhanomarov/work/2020/web/dashboard/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0441CA-F547-6145-91A7-5956D0300864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA053F7-7A0C-8F4D-93BC-6DB252686B3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15940" xr2:uid="{B06216E9-74D1-074B-A024-5DC0E271025A}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15940" xr2:uid="{B06216E9-74D1-074B-A024-5DC0E271025A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
   <si>
     <t>УПСВ-2, НФС</t>
   </si>
@@ -1299,6 +1299,9 @@
   </si>
   <si>
     <t xml:space="preserve"> НГДУ-2, ЦДНГ-12 Кормасс</t>
+  </si>
+  <si>
+    <t>ЦППН</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1379,12 +1382,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1406,6 +1420,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1722,46 +1739,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D819B7-CE1A-9E44-97D1-14BAD9F71141}">
-  <dimension ref="A1:A436"/>
+  <dimension ref="A1:A437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="C425" sqref="C425"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1771,7 +1790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1786,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1796,27 +1815,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1826,72 +1845,72 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1921,17 +1940,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -1956,12 +1975,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="70" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="70" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -1971,17 +1990,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -2001,37 +2020,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2086,17 +2105,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -2106,12 +2125,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -2131,17 +2150,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -2156,12 +2175,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -2171,7 +2190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -2191,62 +2210,62 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="70" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="70" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="56" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="56" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="56" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="56" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="56" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
@@ -2261,7 +2280,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="56" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -2286,17 +2305,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -2306,22 +2325,22 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -2331,27 +2350,27 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -2376,47 +2395,47 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -2431,97 +2450,97 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -2531,42 +2550,42 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -2581,27 +2600,27 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -2611,32 +2630,32 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="56" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -2816,57 +2835,57 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="56" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -2926,22 +2945,22 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
@@ -3201,17 +3220,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -3296,92 +3315,92 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
@@ -3401,42 +3420,42 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>341</v>
       </c>
@@ -3446,37 +3465,37 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
         <v>349</v>
       </c>
@@ -3521,122 +3540,122 @@
         <v>354</v>
       </c>
     </row>
-    <row r="359" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="360" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="361" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="375" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="377" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="379" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>378</v>
       </c>
@@ -3646,57 +3665,57 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="387" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="389" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="390" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="391" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="392" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="393" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>389</v>
       </c>
@@ -3706,22 +3725,22 @@
         <v>390</v>
       </c>
     </row>
-    <row r="396" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="397" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="398" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="399" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>394</v>
       </c>
@@ -3766,22 +3785,22 @@
         <v>402</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="56" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
         <v>406</v>
       </c>
@@ -3791,17 +3810,17 @@
         <v>407</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
         <v>410</v>
       </c>
@@ -3871,37 +3890,37 @@
         <v>413</v>
       </c>
     </row>
-    <row r="429" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="430" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="431" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="432" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="433" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="434" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="435" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="6" t="s">
         <v>420</v>
       </c>
@@ -3909,6 +3928,11 @@
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
